--- a/results/skin_layer_analysis_summary.xlsx
+++ b/results/skin_layer_analysis_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.531</v>
+        <v>1.494</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.531</v>
+        <v>1.494</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -516,13 +516,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.811</v>
+        <v>2.81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.531</v>
+        <v>1.494</v>
       </c>
       <c r="F3" t="n">
-        <v>3.342</v>
+        <v>4.304</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -544,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.658</v>
+        <v>0.696</v>
       </c>
       <c r="E4" t="n">
-        <v>3.342</v>
+        <v>4.304</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.462</v>
+        <v>0.262</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.462</v>
+        <v>0.262</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -600,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.325</v>
+        <v>2.187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.462</v>
+        <v>0.262</v>
       </c>
       <c r="F6" t="n">
-        <v>2.787</v>
+        <v>2.449</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -628,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.11</v>
+        <v>2.449</v>
       </c>
       <c r="E7" t="n">
-        <v>2.787</v>
+        <v>2.449</v>
       </c>
       <c r="F7" t="n">
         <v>4.897</v>
@@ -684,19 +684,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262</v>
+        <v>0.508</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.262</v>
+        <v>0.508</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -712,19 +712,19 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.201</v>
+        <v>3.819</v>
       </c>
       <c r="E10" t="n">
-        <v>0.262</v>
+        <v>0.508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.463</v>
+        <v>4.327</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -740,19 +740,19 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.347</v>
+        <v>0.673</v>
       </c>
       <c r="E11" t="n">
-        <v>1.463</v>
+        <v>4.327</v>
       </c>
       <c r="F11" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2.19</v>
+        <v>1.34</v>
       </c>
       <c r="E12" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1.34</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.431</v>
+        <v>2.441</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F13" t="n">
-        <v>0.431</v>
+        <v>3.781</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>2.087</v>
+        <v>1.219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.431</v>
+        <v>3.781</v>
       </c>
       <c r="F14" t="n">
-        <v>2.518</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.571</v>
+        <v>1.394</v>
       </c>
       <c r="E15" t="n">
-        <v>2.518</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.089</v>
+        <v>1.394</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.911</v>
+        <v>2.094</v>
       </c>
       <c r="E16" t="n">
-        <v>4.089</v>
+        <v>1.394</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3.488</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -905,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246</v>
+        <v>1.512</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.246</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -930,19 +930,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>3.965</v>
+        <v>0.393</v>
       </c>
       <c r="E18" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.212</v>
+        <v>0.393</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -958,19 +958,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.788</v>
+        <v>1.825</v>
       </c>
       <c r="E19" t="n">
-        <v>4.212</v>
+        <v>0.393</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>2.218</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -989,22 +989,22 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>2.782</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2.056</v>
+        <v>1.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.556</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.671</v>
+        <v>1.632</v>
       </c>
       <c r="E22" t="n">
-        <v>2.556</v>
+        <v>1.44</v>
       </c>
       <c r="F22" t="n">
-        <v>4.227</v>
+        <v>3.072</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.773</v>
+        <v>1.663</v>
       </c>
       <c r="E23" t="n">
-        <v>4.227</v>
+        <v>3.072</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4.735</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.477</v>
+        <v>0.265</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.735</v>
       </c>
       <c r="F24" t="n">
-        <v>0.477</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1.648</v>
+        <v>0.269</v>
       </c>
       <c r="E25" t="n">
-        <v>0.477</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.125</v>
+        <v>0.269</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.586</v>
+        <v>1.717</v>
       </c>
       <c r="E26" t="n">
-        <v>2.125</v>
+        <v>0.269</v>
       </c>
       <c r="F26" t="n">
-        <v>3.711</v>
+        <v>1.987</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1182,134 +1182,134 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>1.289</v>
+        <v>3.013</v>
       </c>
       <c r="E27" t="n">
-        <v>3.711</v>
+        <v>1.987</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254</v>
+        <v>0.331</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.254</v>
+        <v>0.331</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>1.194</v>
+        <v>3.342</v>
       </c>
       <c r="E29" t="n">
-        <v>0.254</v>
+        <v>0.331</v>
       </c>
       <c r="F29" t="n">
-        <v>1.448</v>
+        <v>3.673</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1.871</v>
+        <v>1.327</v>
       </c>
       <c r="E30" t="n">
-        <v>1.448</v>
+        <v>3.673</v>
       </c>
       <c r="F30" t="n">
-        <v>3.319</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1.132</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>3.319</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.451</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -1322,19 +1322,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.393</v>
+        <v>1.378</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.393</v>
+        <v>1.463</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1350,19 +1350,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>1.987</v>
+        <v>1.309</v>
       </c>
       <c r="E33" t="n">
-        <v>0.393</v>
+        <v>1.463</v>
       </c>
       <c r="F33" t="n">
-        <v>2.379</v>
+        <v>2.772</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>1.509</v>
+        <v>2.228</v>
       </c>
       <c r="E34" t="n">
-        <v>2.379</v>
+        <v>2.772</v>
       </c>
       <c r="F34" t="n">
-        <v>3.889</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1.111</v>
+        <v>0.362</v>
       </c>
       <c r="E35" t="n">
-        <v>3.889</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0.362</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>0.223</v>
+        <v>2.98</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.362</v>
       </c>
       <c r="F36" t="n">
-        <v>0.223</v>
+        <v>3.342</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1462,25 +1462,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>1.478</v>
+        <v>1.658</v>
       </c>
       <c r="E37" t="n">
-        <v>0.223</v>
+        <v>3.342</v>
       </c>
       <c r="F37" t="n">
-        <v>1.702</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2.133</v>
+        <v>0.439</v>
       </c>
       <c r="E38" t="n">
-        <v>1.702</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.835</v>
+        <v>0.439</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1.165</v>
+        <v>1.879</v>
       </c>
       <c r="E39" t="n">
-        <v>3.835</v>
+        <v>0.439</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>2.318</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1546,25 +1546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293</v>
+        <v>2.682</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.318</v>
       </c>
       <c r="F40" t="n">
-        <v>0.293</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.455</v>
+        <v>1.478</v>
       </c>
       <c r="E41" t="n">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.748</v>
+        <v>1.478</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1602,25 +1602,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>3.149</v>
+        <v>1.432</v>
       </c>
       <c r="E42" t="n">
-        <v>1.748</v>
+        <v>1.478</v>
       </c>
       <c r="F42" t="n">
-        <v>4.897</v>
+        <v>2.911</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.103</v>
+        <v>2.089</v>
       </c>
       <c r="E43" t="n">
-        <v>4.897</v>
+        <v>2.911</v>
       </c>
       <c r="F43" t="n">
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1658,25 +1658,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.385</v>
+        <v>0.293</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.385</v>
+        <v>0.293</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>1.301</v>
+        <v>1.863</v>
       </c>
       <c r="E45" t="n">
-        <v>0.385</v>
+        <v>0.293</v>
       </c>
       <c r="F45" t="n">
-        <v>1.686</v>
+        <v>2.156</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1714,25 +1714,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>1.247</v>
+        <v>2.844</v>
       </c>
       <c r="E46" t="n">
-        <v>1.686</v>
+        <v>2.156</v>
       </c>
       <c r="F46" t="n">
-        <v>2.934</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1742,22 +1742,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.924</v>
+        <v>0.1</v>
       </c>
       <c r="E47" t="n">
-        <v>2.934</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>3.858</v>
+        <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -1770,22 +1770,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0.416</v>
+        <v>2.079</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.416</v>
+        <v>2.179</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -1798,22 +1798,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>1.409</v>
+        <v>2.51</v>
       </c>
       <c r="E49" t="n">
-        <v>0.416</v>
+        <v>2.179</v>
       </c>
       <c r="F49" t="n">
-        <v>1.825</v>
+        <v>4.689</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -1826,22 +1826,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>1.201</v>
+        <v>0.311</v>
       </c>
       <c r="E50" t="n">
-        <v>1.825</v>
+        <v>4.689</v>
       </c>
       <c r="F50" t="n">
-        <v>3.026</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>4</v>
@@ -1854,22 +1854,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.955</v>
+        <v>0.046</v>
       </c>
       <c r="E51" t="n">
-        <v>3.026</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>3.981</v>
+        <v>0.046</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0.254</v>
+        <v>1.371</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.254</v>
+        <v>1.417</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
@@ -1910,22 +1910,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>1.286</v>
+        <v>2.78</v>
       </c>
       <c r="E53" t="n">
-        <v>0.254</v>
+        <v>1.417</v>
       </c>
       <c r="F53" t="n">
-        <v>1.54</v>
+        <v>4.196</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>1.086</v>
+        <v>0.804</v>
       </c>
       <c r="E54" t="n">
-        <v>1.54</v>
+        <v>4.196</v>
       </c>
       <c r="F54" t="n">
-        <v>2.626</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>4</v>
@@ -1962,26 +1962,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.001</v>
+        <v>0.154</v>
       </c>
       <c r="E55" t="n">
-        <v>2.626</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3.627</v>
+        <v>0.154</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
@@ -1990,23 +1990,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>0.239</v>
+        <v>2.849</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="F56" t="n">
-        <v>0.239</v>
+        <v>3.003</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2018,23 +2018,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>1.371</v>
+        <v>1.525</v>
       </c>
       <c r="E57" t="n">
-        <v>0.239</v>
+        <v>3.003</v>
       </c>
       <c r="F57" t="n">
-        <v>1.609</v>
+        <v>4.528</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2046,23 +2046,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>1.871</v>
+        <v>0.472</v>
       </c>
       <c r="E58" t="n">
-        <v>1.609</v>
+        <v>4.528</v>
       </c>
       <c r="F58" t="n">
-        <v>3.48</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2074,26 +2074,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52</v>
+        <v>0.015</v>
       </c>
       <c r="E59" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>0.015</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -2102,85 +2102,85 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>0.285</v>
+        <v>1.609</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F60" t="n">
-        <v>0.285</v>
+        <v>1.625</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>1.34</v>
+        <v>1.809</v>
       </c>
       <c r="E61" t="n">
-        <v>0.285</v>
+        <v>1.625</v>
       </c>
       <c r="F61" t="n">
-        <v>1.625</v>
+        <v>3.434</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>3.375</v>
+        <v>1.525</v>
       </c>
       <c r="E62" t="n">
-        <v>1.625</v>
+        <v>3.434</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>4.959</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.501</v>
+        <v>0.585</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.501</v>
+        <v>0.585</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2218,25 +2218,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>2.102</v>
+        <v>3.65</v>
       </c>
       <c r="E64" t="n">
-        <v>0.501</v>
+        <v>0.585</v>
       </c>
       <c r="F64" t="n">
-        <v>2.603</v>
+        <v>4.235</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>2.017</v>
+        <v>0.765</v>
       </c>
       <c r="E65" t="n">
-        <v>2.603</v>
+        <v>4.235</v>
       </c>
       <c r="F65" t="n">
-        <v>4.62</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2274,22 +2274,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38</v>
+        <v>1.232</v>
       </c>
       <c r="E66" t="n">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>1.232</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>4</v>
@@ -2302,22 +2302,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.293</v>
+        <v>1.194</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1.232</v>
       </c>
       <c r="F67" t="n">
-        <v>0.293</v>
+        <v>2.425</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
@@ -2330,22 +2330,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>1.424</v>
+        <v>1.209</v>
       </c>
       <c r="E68" t="n">
-        <v>0.293</v>
+        <v>2.425</v>
       </c>
       <c r="F68" t="n">
-        <v>1.717</v>
+        <v>3.634</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>4</v>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>3.049</v>
+        <v>1.201</v>
       </c>
       <c r="E69" t="n">
-        <v>1.717</v>
+        <v>3.634</v>
       </c>
       <c r="F69" t="n">
-        <v>4.766</v>
+        <v>4.836</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>4</v>
@@ -2386,19 +2386,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.234</v>
+        <v>0.015</v>
       </c>
       <c r="E70" t="n">
-        <v>4.766</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>0.015</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2414,19 +2414,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>0.331</v>
+        <v>1.509</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.331</v>
+        <v>1.525</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>1.54</v>
+        <v>2.31</v>
       </c>
       <c r="E72" t="n">
-        <v>0.331</v>
+        <v>1.525</v>
       </c>
       <c r="F72" t="n">
-        <v>1.871</v>
+        <v>3.835</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -2470,19 +2470,19 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>1.886</v>
+        <v>1.165</v>
       </c>
       <c r="E73" t="n">
-        <v>1.871</v>
+        <v>3.835</v>
       </c>
       <c r="F73" t="n">
-        <v>3.758</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -2498,19 +2498,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1.242</v>
+        <v>1.24</v>
       </c>
       <c r="E74" t="n">
-        <v>3.758</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>1.24</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -2526,19 +2526,19 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0.431</v>
+        <v>1.863</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="F75" t="n">
-        <v>0.431</v>
+        <v>3.103</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>2.025</v>
+        <v>1.317</v>
       </c>
       <c r="E76" t="n">
-        <v>0.431</v>
+        <v>3.103</v>
       </c>
       <c r="F76" t="n">
-        <v>2.456</v>
+        <v>4.42</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -2582,19 +2582,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>1.509</v>
+        <v>0.58</v>
       </c>
       <c r="E77" t="n">
-        <v>2.456</v>
+        <v>4.42</v>
       </c>
       <c r="F77" t="n">
-        <v>3.965</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -2610,22 +2610,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1.035</v>
+        <v>0.131</v>
       </c>
       <c r="E78" t="n">
-        <v>3.965</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>0.131</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
@@ -2638,19 +2638,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0.362</v>
+        <v>1.417</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="F79" t="n">
-        <v>0.362</v>
+        <v>1.548</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -2666,19 +2666,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1.309</v>
+        <v>1.386</v>
       </c>
       <c r="E80" t="n">
-        <v>0.362</v>
+        <v>1.548</v>
       </c>
       <c r="F80" t="n">
-        <v>1.671</v>
+        <v>2.934</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -2694,19 +2694,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>1.209</v>
+        <v>1.994</v>
       </c>
       <c r="E81" t="n">
-        <v>1.671</v>
+        <v>2.934</v>
       </c>
       <c r="F81" t="n">
-        <v>2.88</v>
+        <v>4.928</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -2722,22 +2722,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17</v>
+        <v>0.139</v>
       </c>
       <c r="E82" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4.05</v>
+        <v>0.139</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>4</v>
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.231</v>
+        <v>2.526</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="F83" t="n">
-        <v>0.231</v>
+        <v>2.664</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -2778,22 +2778,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>1.355</v>
+        <v>1.571</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231</v>
+        <v>2.664</v>
       </c>
       <c r="F84" t="n">
-        <v>1.586</v>
+        <v>4.235</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -2806,164 +2806,24 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1.656</v>
+        <v>0.765</v>
       </c>
       <c r="E85" t="n">
-        <v>1.586</v>
+        <v>4.235</v>
       </c>
       <c r="F85" t="n">
-        <v>3.242</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.578</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.242</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G86" t="n">
-        <v>4</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="G87" t="n">
-        <v>4</v>
-      </c>
-      <c r="H87" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G88" t="n">
-        <v>4</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.386</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="G89" t="n">
-        <v>4</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="E90" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4.581</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4</v>
-      </c>
-      <c r="H90" t="n">
         <v>4</v>
       </c>
     </row>

--- a/results/skin_layer_analysis_summary.xlsx
+++ b/results/skin_layer_analysis_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Layer_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thickness_mm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Depth_Start_mm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Depth_End_mm</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Boundaries</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Positions</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total_Layers</t>
         </is>
@@ -487,20 +492,25 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.494</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.494</v>
-      </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.247</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -515,20 +525,25 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.81</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>진피+근막 (Dermis+Fascia)</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>1.494</v>
+        <v>4.753</v>
       </c>
       <c r="F3" t="n">
-        <v>4.304</v>
+        <v>1.247</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +553,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.696</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>4.304</v>
+        <v>1.725</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +589,27 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.262</v>
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>진피+근막 (Dermis+Fascia)</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.262</v>
+        <v>1.725</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +619,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.187</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.262</v>
+        <v>0.416</v>
       </c>
       <c r="F6" t="n">
-        <v>2.449</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0.416</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +652,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.449</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>2.449</v>
+        <v>2.549</v>
       </c>
       <c r="F7" t="n">
-        <v>4.897</v>
+        <v>0.416</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.964</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +685,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.103</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>4.897</v>
+        <v>3.036</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>2.964</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -678,24 +718,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.508</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E9" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.508</v>
-      </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0.277</v>
       </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,24 +751,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>3.819</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0.508</v>
+        <v>1.386</v>
       </c>
       <c r="F10" t="n">
-        <v>4.327</v>
+        <v>0.277</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.663</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,24 +784,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.673</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>4.327</v>
+        <v>4.337</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>1.663</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -762,24 +817,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.34</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E12" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>1.34</v>
-      </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0.316</v>
       </c>
       <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -790,24 +850,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>2.441</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1.34</v>
+        <v>1.363</v>
       </c>
       <c r="F13" t="n">
-        <v>3.781</v>
+        <v>0.316</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.679</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,24 +883,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.219</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>3.781</v>
+        <v>4.321</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1.679</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,24 +916,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.394</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E15" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.394</v>
-      </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0.393</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,24 +949,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>2.094</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>1.394</v>
+        <v>1.502</v>
       </c>
       <c r="F16" t="n">
-        <v>3.488</v>
+        <v>0.393</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.894</v>
       </c>
       <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -902,24 +982,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
-        <v>1.512</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>3.488</v>
+        <v>4.106</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>1.894</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -930,24 +1015,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.393</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E18" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.393</v>
-      </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.602</v>
       </c>
       <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -958,24 +1048,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>1.825</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0.393</v>
+        <v>3.234</v>
       </c>
       <c r="F19" t="n">
-        <v>2.218</v>
+        <v>1.602</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4.836</v>
       </c>
       <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -986,24 +1081,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
-        <v>2.782</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>2.218</v>
+        <v>1.164</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4.836</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1014,25 +1114,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>1.44</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E21" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.44</v>
-      </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1147,30 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.632</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>1.44</v>
+        <v>1.201</v>
       </c>
       <c r="F22" t="n">
-        <v>3.072</v>
+        <v>2.325</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.527</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1070,136 +1180,161 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
-      <c r="D23" t="n">
-        <v>1.663</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>3.072</v>
+        <v>2.473</v>
       </c>
       <c r="F23" t="n">
-        <v>4.735</v>
+        <v>3.527</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.265</v>
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>4.735</v>
+        <v>0.4</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.269</v>
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.504</v>
       </c>
       <c r="F25" t="n">
-        <v>0.269</v>
+        <v>0.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3.904</v>
       </c>
       <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.717</v>
+        <v>3</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0.269</v>
+        <v>2.096</v>
       </c>
       <c r="F26" t="n">
-        <v>1.987</v>
+        <v>3.904</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Drpark</t>
+          <t>bhjung</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.013</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>1.987</v>
+        <v>0.339</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1210,24 +1345,29 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.331</v>
+        <v>2</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.331</v>
+        <v>0.339</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3.935</v>
       </c>
       <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,24 +1378,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.342</v>
+        <v>3</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0.331</v>
+        <v>2.065</v>
       </c>
       <c r="F29" t="n">
-        <v>3.673</v>
+        <v>3.935</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,24 +1411,29 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.327</v>
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>3.673</v>
+        <v>0.185</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.185</v>
       </c>
       <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1294,25 +1444,30 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.08500000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.386</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1322,25 +1477,30 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.378</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>0.08500000000000001</v>
+        <v>4.429</v>
       </c>
       <c r="F32" t="n">
-        <v>1.463</v>
+        <v>1.571</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1510,30 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.309</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>1.463</v>
+        <v>1.74</v>
       </c>
       <c r="F33" t="n">
-        <v>2.772</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1378,25 +1543,30 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.228</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>2.772</v>
+        <v>1.917</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>3.657</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1406,24 +1576,29 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.362</v>
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.343</v>
       </c>
       <c r="F35" t="n">
-        <v>0.362</v>
+        <v>3.657</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1434,24 +1609,29 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.98</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>0.362</v>
+        <v>0.416</v>
       </c>
       <c r="F36" t="n">
-        <v>3.342</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.416</v>
       </c>
       <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1462,24 +1642,29 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.658</v>
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>3.342</v>
+        <v>1.409</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>0.416</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1490,24 +1675,29 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.439</v>
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.175</v>
       </c>
       <c r="F38" t="n">
-        <v>0.439</v>
+        <v>1.825</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1518,24 +1708,29 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.879</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>0.439</v>
+        <v>0.285</v>
       </c>
       <c r="F39" t="n">
-        <v>2.318</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0.285</v>
       </c>
       <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1546,24 +1741,29 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.682</v>
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>2.318</v>
+        <v>2.271</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>0.285</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.556</v>
       </c>
       <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1574,24 +1774,29 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.478</v>
+        <v>3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.444</v>
       </c>
       <c r="F41" t="n">
-        <v>1.478</v>
+        <v>2.556</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1602,24 +1807,29 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.432</v>
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>1.478</v>
+        <v>0.346</v>
       </c>
       <c r="F42" t="n">
-        <v>2.911</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0.346</v>
       </c>
       <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1630,24 +1840,29 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.089</v>
+        <v>2</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>2.911</v>
+        <v>4.035</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>0.346</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>4.381</v>
       </c>
       <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1658,24 +1873,29 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.293</v>
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.293</v>
+        <v>4.381</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1686,24 +1906,29 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.863</v>
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>0.293</v>
+        <v>0.346</v>
       </c>
       <c r="F45" t="n">
-        <v>2.156</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.346</v>
       </c>
       <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1714,24 +1939,29 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.844</v>
+        <v>2</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>2.156</v>
+        <v>1.34</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>0.346</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.686</v>
       </c>
       <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1742,221 +1972,261 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.1</v>
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4.314</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>1.686</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.079</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1</v>
+        <v>1.956</v>
       </c>
       <c r="F48" t="n">
-        <v>2.179</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1.956</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.51</v>
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E49" t="n">
-        <v>2.179</v>
+        <v>2.402</v>
       </c>
       <c r="F49" t="n">
-        <v>4.689</v>
+        <v>1.956</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>4.358</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.311</v>
+        <v>3</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>4.689</v>
+        <v>1.642</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>4.358</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.046</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E51" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.046</v>
-      </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1.656</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
-      <c r="D52" t="n">
-        <v>1.371</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E52" t="n">
-        <v>0.046</v>
+        <v>2.888</v>
       </c>
       <c r="F52" t="n">
-        <v>1.417</v>
+        <v>1.656</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4.543</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
       </c>
-      <c r="D53" t="n">
-        <v>2.78</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E53" t="n">
-        <v>1.417</v>
+        <v>1.457</v>
       </c>
       <c r="F53" t="n">
-        <v>4.196</v>
+        <v>4.543</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bhjung</t>
+          <t>cmkim</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.804</v>
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E54" t="n">
-        <v>4.196</v>
+        <v>0.331</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0.331</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1966,25 +2236,30 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.154</v>
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="F55" t="n">
-        <v>0.154</v>
+        <v>0.331</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1.871</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1994,25 +2269,30 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.849</v>
+        <v>3</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E56" t="n">
-        <v>0.154</v>
+        <v>4.129</v>
       </c>
       <c r="F56" t="n">
-        <v>3.003</v>
+        <v>1.871</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2022,25 +2302,30 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.525</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>3.003</v>
+        <v>0.323</v>
       </c>
       <c r="F57" t="n">
-        <v>4.528</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0.323</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2050,25 +2335,30 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.472</v>
+        <v>2</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E58" t="n">
-        <v>4.528</v>
+        <v>3.604</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>0.323</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>3.927</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2078,25 +2368,30 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.015</v>
+        <v>3</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.073</v>
       </c>
       <c r="F59" t="n">
-        <v>0.015</v>
+        <v>3.927</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2106,25 +2401,30 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.609</v>
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E60" t="n">
-        <v>0.015</v>
+        <v>0.37</v>
       </c>
       <c r="F60" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0.37</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2134,25 +2434,30 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.809</v>
+        <v>2</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E61" t="n">
-        <v>1.625</v>
+        <v>3.457</v>
       </c>
       <c r="F61" t="n">
-        <v>3.434</v>
+        <v>0.37</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>3.827</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2162,25 +2467,30 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.525</v>
+        <v>3</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E62" t="n">
-        <v>3.434</v>
+        <v>2.173</v>
       </c>
       <c r="F62" t="n">
-        <v>4.959</v>
+        <v>3.827</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2190,24 +2500,29 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
-      <c r="D63" t="n">
-        <v>0.585</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E63" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.585</v>
-      </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.586</v>
       </c>
       <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2218,24 +2533,29 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
-      <c r="D64" t="n">
-        <v>3.65</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E64" t="n">
-        <v>0.585</v>
+        <v>3.234</v>
       </c>
       <c r="F64" t="n">
-        <v>4.235</v>
+        <v>1.586</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4.82</v>
       </c>
       <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2246,24 +2566,29 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
-      <c r="D65" t="n">
-        <v>0.765</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E65" t="n">
-        <v>4.235</v>
+        <v>1.18</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2274,25 +2599,30 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>1.232</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E66" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="F66" t="n">
-        <v>1.232</v>
-      </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1.247</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2302,25 +2632,30 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
-      <c r="D67" t="n">
-        <v>1.194</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E67" t="n">
-        <v>1.232</v>
+        <v>2.98</v>
       </c>
       <c r="F67" t="n">
-        <v>2.425</v>
+        <v>1.247</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>4.227</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2330,25 +2665,30 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>3</v>
       </c>
-      <c r="D68" t="n">
-        <v>1.209</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E68" t="n">
-        <v>2.425</v>
+        <v>1.773</v>
       </c>
       <c r="F68" t="n">
-        <v>3.634</v>
+        <v>4.227</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2358,25 +2698,30 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.201</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>표피 (Epidermis)</t>
+        </is>
       </c>
       <c r="E69" t="n">
-        <v>3.634</v>
+        <v>1.925</v>
       </c>
       <c r="F69" t="n">
-        <v>4.836</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>1.925</v>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2386,25 +2731,30 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.015</v>
+        <v>2</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>진피 (Dermis)</t>
+        </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1.448</v>
       </c>
       <c r="F70" t="n">
-        <v>0.015</v>
+        <v>1.925</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>3.373</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2414,417 +2764,30 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.509</v>
+        <v>3</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>근막 (Fascia)</t>
+        </is>
       </c>
       <c r="E71" t="n">
-        <v>0.015</v>
+        <v>2.627</v>
       </c>
       <c r="F71" t="n">
-        <v>1.525</v>
+        <v>3.373</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3.835</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.165</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3.835</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>6</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.317</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>7</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="G78" t="n">
-        <v>4</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>7</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.417</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1.548</v>
-      </c>
-      <c r="G79" t="n">
-        <v>4</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.386</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.548</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.994</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4.928</v>
-      </c>
-      <c r="G81" t="n">
-        <v>4</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.526</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.664</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2.664</v>
-      </c>
-      <c r="F84" t="n">
-        <v>4.235</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3</v>
-      </c>
-      <c r="H84" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>cmkim</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4.235</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3</v>
-      </c>
-      <c r="H85" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
